--- a/biology/Zoologie/Felimida_luteorosea/Felimida_luteorosea.xlsx
+++ b/biology/Zoologie/Felimida_luteorosea/Felimida_luteorosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris tacheté mauve
 Le Felimida luteorosea, ou doris tacheté mauve, est un nudibranche de la famille des chromodorididés.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nudibranche d'une taille maximum de 55 millimètres[1] possède un manteau mauve, bordé d'une ligne jaune et tacheté de gros points jaunes. Ses rhinophores annelés et son panache branchial sont également mauves.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nudibranche d'une taille maximum de 55 millimètres possède un manteau mauve, bordé d'une ligne jaune et tacheté de gros points jaunes. Ses rhinophores annelés et son panache branchial sont également mauves.
 			Couple
 			Juvénile
 </t>
@@ -545,7 +559,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en mer Méditerranée ou dans l'Atlantique proche, de 5 à 40 mètres de profondeur. Son alimentation est composée d’éponges, notamment Aplysilla rosea et Spongionella pulchella.
 </t>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique luteorosea vient du latin luteus (jaune) et roseus (rose), les deux couleurs de son manteau.
 </t>
@@ -607,9 +625,11 @@
           <t>Espèces similaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Felimida luteopunctata[1] (Gantès, 1962)</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Felimida luteopunctata (Gantès, 1962)</t>
         </is>
       </c>
     </row>
